--- a/Functioncat.xlsx
+++ b/Functioncat.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\17044\Desktop\GitHub\oysteRcam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{262639D8-BCE8-4A7E-965D-944B38B19DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477EE4F0-4D78-4D69-A698-2A7C2F2350C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12090" yWindow="0" windowWidth="7200" windowHeight="10170" xr2:uid="{5271F4F9-431C-45B4-B4CB-DF27C04C0633}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="oysteRcam" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -542,7 +542,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
